--- a/backend/ExportedData.xlsx
+++ b/backend/ExportedData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -52,34 +52,127 @@
     <t>Sales Change (%)</t>
   </si>
   <si>
-    <t>2022-04-01</t>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>Nails</t>
+  </si>
+  <si>
+    <t>Top coat</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>23-32</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Transylvania</t>
+  </si>
+  <si>
+    <t>███████    22</t>
+  </si>
+  <si>
+    <t>▲ 90.00%</t>
+  </si>
+  <si>
+    <t>Fragrance</t>
+  </si>
+  <si>
+    <t>Pocket perfume</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>63-73</t>
+  </si>
+  <si>
+    <t>██████     18</t>
+  </si>
+  <si>
+    <t>▲ 201.06%</t>
+  </si>
+  <si>
+    <t>Lips</t>
+  </si>
+  <si>
+    <t>Lip liner</t>
+  </si>
+  <si>
+    <t>Seniors</t>
+  </si>
+  <si>
+    <t>████       11</t>
+  </si>
+  <si>
+    <t>▲ 137.40%</t>
+  </si>
+  <si>
+    <t>Skincare</t>
+  </si>
+  <si>
+    <t>Moisturizing</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>13-22</t>
+  </si>
+  <si>
+    <t>█████      16</t>
+  </si>
+  <si>
+    <t>▼ -53.14%</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Lipstick</t>
+  </si>
+  <si>
+    <t>53-62</t>
+  </si>
+  <si>
+    <t>██████     19</t>
+  </si>
+  <si>
+    <t>▲ 320.84%</t>
   </si>
   <si>
     <t>Hands</t>
   </si>
   <si>
-    <t>Repair lotion</t>
-  </si>
-  <si>
-    <t>Seniors</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>53-62</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ardeal</t>
-  </si>
-  <si>
-    <t>█████      14</t>
-  </si>
-  <si>
-    <t>▼ -43.34%</t>
+    <t>Liquid soap</t>
+  </si>
+  <si>
+    <t>33-42</t>
+  </si>
+  <si>
+    <t>█████████  29</t>
+  </si>
+  <si>
+    <t>▲ 201.79%</t>
+  </si>
+  <si>
+    <t>Hand cream</t>
+  </si>
+  <si>
+    <t>43-52</t>
+  </si>
+  <si>
+    <t>█████      15</t>
+  </si>
+  <si>
+    <t>➔ -7.02%</t>
   </si>
   <si>
     <t>Eyes</t>
@@ -88,130 +181,19 @@
     <t>Mascara</t>
   </si>
   <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>63-73</t>
-  </si>
-  <si>
-    <t>███████    18</t>
-  </si>
-  <si>
-    <t>▲ 137.67%</t>
-  </si>
-  <si>
-    <t>23-32</t>
-  </si>
-  <si>
-    <t>█████████  23</t>
-  </si>
-  <si>
-    <t>▼ -83.41%</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Blush</t>
-  </si>
-  <si>
-    <t>13-22</t>
-  </si>
-  <si>
-    <t>██████████ 26</t>
-  </si>
-  <si>
-    <t>➔ 0.45%</t>
-  </si>
-  <si>
-    <t>Lips</t>
-  </si>
-  <si>
-    <t>Liquid lipstick</t>
-  </si>
-  <si>
-    <t>43-52</t>
-  </si>
-  <si>
-    <t>▼ -66.43%</t>
-  </si>
-  <si>
-    <t>Nails</t>
-  </si>
-  <si>
-    <t>Top coat</t>
-  </si>
-  <si>
-    <t>█████      12</t>
-  </si>
-  <si>
-    <t>▼ -38.39%</t>
-  </si>
-  <si>
-    <t>Moisturizing treatment</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>33-42</t>
-  </si>
-  <si>
-    <t>████████   22</t>
-  </si>
-  <si>
-    <t>▼ -52.90%</t>
-  </si>
-  <si>
-    <t>Brow gel</t>
-  </si>
-  <si>
-    <t>████████   21</t>
-  </si>
-  <si>
-    <t>▼ -83.64%</t>
-  </si>
-  <si>
-    <t>Lip scrub</t>
-  </si>
-  <si>
-    <t>▲ 83.27%</t>
-  </si>
-  <si>
-    <t>Sun Protection</t>
-  </si>
-  <si>
-    <t>Sun protection gel</t>
-  </si>
-  <si>
-    <t>███████    17</t>
-  </si>
-  <si>
-    <t>▼ -79.53%</t>
-  </si>
-  <si>
-    <t>Matte lipstick</t>
-  </si>
-  <si>
-    <t>█████      13</t>
-  </si>
-  <si>
-    <t>▼ -45.19%</t>
-  </si>
-  <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Deodorant</t>
-  </si>
-  <si>
-    <t>▲ 22.00%</t>
-  </si>
-  <si>
-    <t>██████     16</t>
-  </si>
-  <si>
-    <t>▼ -60.41%</t>
+    <t>▲ 201.58%</t>
+  </si>
+  <si>
+    <t>▲ 20.48%</t>
+  </si>
+  <si>
+    <t>Nail treatment</t>
+  </si>
+  <si>
+    <t>██████████ 31</t>
+  </si>
+  <si>
+    <t>▲ 251.62%</t>
   </si>
   <si>
     <t>Total</t>
@@ -258,12 +240,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="9C0006"/>
+        <fgColor rgb="006100"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006100"/>
+        <fgColor rgb="9C0006"/>
       </patternFill>
     </fill>
     <fill>
@@ -314,7 +296,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="13" width="20" customWidth="1"/>
@@ -727,16 +709,16 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <v>113.76</v>
+        <v>128.96</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K2">
-        <v>150.57</v>
+        <v>120.99</v>
       </c>
       <c r="L2">
-        <v>2221.7400000000002</v>
+        <v>2790.74</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>22</v>
@@ -768,18 +750,18 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>103.34</v>
+        <v>101.57</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K3">
-        <v>120.99</v>
+        <v>199.99</v>
       </c>
       <c r="L3">
-        <v>2281.16</v>
-      </c>
-      <c r="M3" s="4" t="s">
+        <v>3701.3900000000003</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -788,19 +770,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -809,19 +791,19 @@
         <v>20</v>
       </c>
       <c r="I4">
-        <v>103.19</v>
+        <v>104.96</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>23.99</v>
+        <v>100</v>
       </c>
       <c r="L4">
-        <v>654.96</v>
+        <v>1204.96</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -829,19 +811,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -850,19 +832,19 @@
         <v>20</v>
       </c>
       <c r="I5">
-        <v>126.21</v>
+        <v>113.04</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>40.49</v>
+        <v>120.99</v>
       </c>
       <c r="L5">
-        <v>1178.95</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>36</v>
+        <v>2048.88</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -870,19 +852,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -891,19 +873,19 @@
         <v>20</v>
       </c>
       <c r="I6">
-        <v>60.96</v>
+        <v>107.09</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>89.99</v>
+        <v>249.99</v>
       </c>
       <c r="L6">
-        <v>2130.73</v>
+        <v>4856.900000000001</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -911,19 +893,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -932,19 +914,19 @@
         <v>20</v>
       </c>
       <c r="I7">
-        <v>138.79</v>
+        <v>97.8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>149.99</v>
+        <v>103.99</v>
       </c>
       <c r="L7">
-        <v>1938.67</v>
+        <v>3113.51</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -952,19 +934,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -973,19 +955,19 @@
         <v>20</v>
       </c>
       <c r="I8">
-        <v>98.71</v>
+        <v>89.49</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>80.49</v>
       </c>
       <c r="L8">
-        <v>2298.71</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>49</v>
+        <v>1296.84</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -993,10 +975,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>25</v>
@@ -1005,7 +987,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>19</v>
@@ -1014,238 +996,115 @@
         <v>20</v>
       </c>
       <c r="I9" s="6">
-        <v>66.77</v>
+        <v>141.88</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K9" s="6">
-        <v>20.99</v>
+        <v>47.99</v>
       </c>
       <c r="L9" s="6">
-        <v>507.55999999999995</v>
+        <v>1197.6599999999999</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="9">
-        <v>68.78</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="9">
-        <v>103.99</v>
-      </c>
-      <c r="L10" s="9">
-        <v>2356.56</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>54</v>
+      <c r="I10" s="6">
+        <v>83.37</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>150.57</v>
+      </c>
+      <c r="L10">
+        <v>3395.91</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="6">
-        <v>24.89</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11">
-        <v>59.99</v>
-      </c>
-      <c r="L11">
-        <v>1044.72</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>58</v>
+      <c r="I11" s="9">
+        <v>88.76</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="9">
+        <v>199.99</v>
+      </c>
+      <c r="L11" s="9">
+        <v>6288.450000000001</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12">
-        <v>46.23</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12">
-        <v>40.49</v>
-      </c>
-      <c r="L12">
-        <v>572.6</v>
-      </c>
-      <c r="M12" s="3" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="9">
-        <v>166.76</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13">
-        <v>120.99</v>
-      </c>
-      <c r="L13">
-        <v>2344.58</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14">
-        <v>139.93</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14">
-        <v>72.99</v>
-      </c>
-      <c r="L14">
-        <v>1307.77</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="1">
-        <f>SUM(I2:I14)</f>
-      </c>
-      <c r="J15" s="1">
-        <f>SUM(J2:J14)</f>
-      </c>
-      <c r="L15" s="1">
-        <f>SUM(L2:L14)</f>
+      <c r="I12" s="1">
+        <f>SUM(I2:I11)</f>
+      </c>
+      <c r="J12" s="1">
+        <f>SUM(J2:J11)</f>
+      </c>
+      <c r="L12" s="1">
+        <f>SUM(L2:L11)</f>
       </c>
     </row>
   </sheetData>

--- a/backend/ExportedData.xlsx
+++ b/backend/ExportedData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -52,148 +52,184 @@
     <t>Sales Change (%)</t>
   </si>
   <si>
-    <t>2023-04-01</t>
+    <t>2022-08-01</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>Brow gel</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>43-52</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ardeal</t>
+  </si>
+  <si>
+    <t>████████▒▒ 22</t>
+  </si>
+  <si>
+    <t>▼ -78.64%</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Lipstick</t>
+  </si>
+  <si>
+    <t>Seniors</t>
+  </si>
+  <si>
+    <t>63-73</t>
+  </si>
+  <si>
+    <t>██████▒▒▒▒ 16</t>
+  </si>
+  <si>
+    <t>⇧ 16.47%</t>
+  </si>
+  <si>
+    <t>Eyeliner</t>
+  </si>
+  <si>
+    <t>██████▒▒▒▒ 17</t>
+  </si>
+  <si>
+    <t>▲ 55.32%</t>
   </si>
   <si>
     <t>Nails</t>
   </si>
   <si>
-    <t>Top coat</t>
+    <t>Nail strengthener</t>
+  </si>
+  <si>
+    <t>███████▒▒▒ 21</t>
+  </si>
+  <si>
+    <t>▲ 311.14%</t>
+  </si>
+  <si>
+    <t>Powder</t>
   </si>
   <si>
     <t>Children</t>
   </si>
   <si>
-    <t>Female</t>
+    <t>13-22</t>
+  </si>
+  <si>
+    <t>████████▒▒ 24</t>
+  </si>
+  <si>
+    <t>▲ 46.15%</t>
+  </si>
+  <si>
+    <t>Nail polish</t>
+  </si>
+  <si>
+    <t>▲ 87.90%</t>
+  </si>
+  <si>
+    <t>Lips</t>
+  </si>
+  <si>
+    <t>Lip liner</t>
+  </si>
+  <si>
+    <t>▲ 37.65%</t>
+  </si>
+  <si>
+    <t>Skincare</t>
+  </si>
+  <si>
+    <t>Cleansing</t>
+  </si>
+  <si>
+    <t>33-42</t>
+  </si>
+  <si>
+    <t>███████▒▒▒ 19</t>
+  </si>
+  <si>
+    <t>▲ 471.16%</t>
+  </si>
+  <si>
+    <t>Mascara</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>▼ -54.17%</t>
+  </si>
+  <si>
+    <t>██████████ 29</t>
+  </si>
+  <si>
+    <t>▲ 124.80%</t>
+  </si>
+  <si>
+    <t>Serum</t>
   </si>
   <si>
     <t>23-32</t>
   </si>
   <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Transylvania</t>
-  </si>
-  <si>
-    <t>███████    22</t>
-  </si>
-  <si>
-    <t>▲ 90.00%</t>
-  </si>
-  <si>
-    <t>Fragrance</t>
-  </si>
-  <si>
-    <t>Pocket perfume</t>
-  </si>
-  <si>
-    <t>Youth</t>
-  </si>
-  <si>
-    <t>63-73</t>
-  </si>
-  <si>
-    <t>██████     18</t>
-  </si>
-  <si>
-    <t>▲ 201.06%</t>
-  </si>
-  <si>
-    <t>Lips</t>
-  </si>
-  <si>
-    <t>Lip liner</t>
-  </si>
-  <si>
-    <t>Seniors</t>
-  </si>
-  <si>
-    <t>████       11</t>
-  </si>
-  <si>
-    <t>▲ 137.40%</t>
-  </si>
-  <si>
-    <t>Skincare</t>
-  </si>
-  <si>
-    <t>Moisturizing</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>13-22</t>
-  </si>
-  <si>
-    <t>█████      16</t>
-  </si>
-  <si>
-    <t>▼ -53.14%</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Lipstick</t>
+    <t>████▒▒▒▒▒▒ 11</t>
+  </si>
+  <si>
+    <t>▲ 75.70%</t>
+  </si>
+  <si>
+    <t>█████████▒ 26</t>
+  </si>
+  <si>
+    <t>▼ -57.84%</t>
+  </si>
+  <si>
+    <t>Concealer</t>
   </si>
   <si>
     <t>53-62</t>
   </si>
   <si>
-    <t>██████     19</t>
-  </si>
-  <si>
-    <t>▲ 320.84%</t>
-  </si>
-  <si>
-    <t>Hands</t>
-  </si>
-  <si>
-    <t>Liquid soap</t>
-  </si>
-  <si>
-    <t>33-42</t>
-  </si>
-  <si>
-    <t>█████████  29</t>
-  </si>
-  <si>
-    <t>▲ 201.79%</t>
-  </si>
-  <si>
-    <t>Hand cream</t>
-  </si>
-  <si>
-    <t>43-52</t>
-  </si>
-  <si>
-    <t>█████      15</t>
-  </si>
-  <si>
-    <t>➔ -7.02%</t>
-  </si>
-  <si>
-    <t>Eyes</t>
-  </si>
-  <si>
-    <t>Mascara</t>
-  </si>
-  <si>
-    <t>▲ 201.58%</t>
-  </si>
-  <si>
-    <t>▲ 20.48%</t>
-  </si>
-  <si>
-    <t>Nail treatment</t>
-  </si>
-  <si>
-    <t>██████████ 31</t>
-  </si>
-  <si>
-    <t>▲ 251.62%</t>
+    <t>████▒▒▒▒▒▒ 12</t>
+  </si>
+  <si>
+    <t>➔ -0.33%</t>
+  </si>
+  <si>
+    <t>Eyeshadow</t>
+  </si>
+  <si>
+    <t>▲ 487.66%</t>
+  </si>
+  <si>
+    <t>█████▒▒▒▒▒ 14</t>
+  </si>
+  <si>
+    <t>▼ -70.26%</t>
+  </si>
+  <si>
+    <t>▲ 121.34%</t>
+  </si>
+  <si>
+    <t>█████████▒ 27</t>
+  </si>
+  <si>
+    <t>▲ 150.06%</t>
   </si>
   <si>
     <t>Total</t>
@@ -217,7 +253,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="5B9BD5"/>
+      <color rgb="8A96A0"/>
     </font>
     <font>
       <color rgb="9C0006"/>
@@ -226,7 +262,7 @@
       <color rgb="006100"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,12 +276,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006100"/>
+        <fgColor rgb="FAD8D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="9C0006"/>
+        <fgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E7F5E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -255,12 +301,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
+        <fgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
+        <fgColor rgb="F4CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -276,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,18 +331,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="13" width="20" customWidth="1"/>
@@ -709,59 +756,59 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <v>128.96</v>
+        <v>64.19</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K2">
-        <v>120.99</v>
+        <v>40.49</v>
       </c>
       <c r="L2">
-        <v>2790.74</v>
+        <v>954.97</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>101.57</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4">
+        <v>134.21</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K3">
-        <v>199.99</v>
-      </c>
-      <c r="L3">
-        <v>3701.3900000000003</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="K3" s="4">
+        <v>23.99</v>
+      </c>
+      <c r="L3" s="4">
+        <v>518.05</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -770,13 +817,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -791,19 +838,19 @@
         <v>20</v>
       </c>
       <c r="I4">
-        <v>104.96</v>
+        <v>113.29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>150.57</v>
       </c>
       <c r="L4">
-        <v>1204.96</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>33</v>
+        <v>2672.98</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -811,40 +858,40 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>123.79</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>113.04</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="K5">
         <v>120.99</v>
       </c>
       <c r="L5">
-        <v>2048.88</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>39</v>
+        <v>2664.58</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -852,40 +899,40 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8">
+        <v>179.19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <v>20.99</v>
+      </c>
+      <c r="L6">
+        <v>682.95</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>107.09</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6">
-        <v>249.99</v>
-      </c>
-      <c r="L6">
-        <v>4856.900000000001</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -893,19 +940,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -914,19 +961,19 @@
         <v>20</v>
       </c>
       <c r="I7">
-        <v>97.8</v>
+        <v>94.08</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>103.99</v>
+        <v>150.57</v>
       </c>
       <c r="L7">
-        <v>3113.51</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>49</v>
+        <v>3256.0499999999997</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -934,81 +981,81 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>82.23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>199.99</v>
+      </c>
+      <c r="L8">
+        <v>4482.01</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>81.6</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9">
+        <v>149.99</v>
+      </c>
+      <c r="L9">
+        <v>2931.4100000000003</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>89.49</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8">
-        <v>80.49</v>
-      </c>
-      <c r="L8">
-        <v>1296.84</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="6">
-        <v>141.88</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="6">
-        <v>47.99</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1197.6599999999999</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1016,95 +1063,382 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>75.4</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10">
+        <v>23.99</v>
+      </c>
+      <c r="L10">
+        <v>531.2099999999999</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>117.62</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11">
+        <v>72.99</v>
+      </c>
+      <c r="L11">
+        <v>2234.33</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="6">
-        <v>83.37</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10">
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>111.87</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12">
+        <v>59.99</v>
+      </c>
+      <c r="L12">
+        <v>771.76</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>129.81</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>20.99</v>
+      </c>
+      <c r="L13">
+        <v>675.55</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>85.6</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14">
+        <v>120.99</v>
+      </c>
+      <c r="L14">
+        <v>1537.4799999999998</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="10">
+        <v>76.79</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="10">
+        <v>199.99</v>
+      </c>
+      <c r="L15" s="10">
+        <v>4876.55</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="12">
+        <v>50.26</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>1450.26</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>127.32</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>249.99</v>
+      </c>
+      <c r="L17">
+        <v>4377.15</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>143.87</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18">
         <v>150.57</v>
       </c>
-      <c r="L10">
-        <v>3395.91</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="9">
-        <v>88.76</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="9">
-        <v>199.99</v>
-      </c>
-      <c r="L11" s="9">
-        <v>6288.450000000001</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="1">
-        <f>SUM(I2:I11)</f>
-      </c>
-      <c r="J12" s="1">
-        <f>SUM(J2:J11)</f>
-      </c>
-      <c r="L12" s="1">
-        <f>SUM(L2:L11)</f>
+      <c r="L18">
+        <v>4209.26</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="1">
+        <f>SUM(I2:I18)</f>
+      </c>
+      <c r="J19" s="1">
+        <f>SUM(J2:J18)</f>
+      </c>
+      <c r="L19" s="1">
+        <f>SUM(L2:L18)</f>
       </c>
     </row>
   </sheetData>

--- a/backend/ExportedData.xlsx
+++ b/backend/ExportedData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -52,184 +52,160 @@
     <t>Sales Change (%)</t>
   </si>
   <si>
-    <t>2022-08-01</t>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Anti-cellulite cream</t>
+  </si>
+  <si>
+    <t>Seniors</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>43-52</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ardeal</t>
+  </si>
+  <si>
+    <t>████▒▒▒▒▒▒ 11</t>
+  </si>
+  <si>
+    <t>▼ -65.68%</t>
+  </si>
+  <si>
+    <t>Sun Protection</t>
+  </si>
+  <si>
+    <t>SPF 50+</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>53-62</t>
+  </si>
+  <si>
+    <t>███████▒▒▒ 20</t>
+  </si>
+  <si>
+    <t>▲ 388.52%</t>
+  </si>
+  <si>
+    <t>13-22</t>
+  </si>
+  <si>
+    <t>➔ -8.02%</t>
+  </si>
+  <si>
+    <t>Skincare</t>
+  </si>
+  <si>
+    <t>Face mask</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>██████▒▒▒▒ 15</t>
+  </si>
+  <si>
+    <t>▲ 33.72%</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>█████████▒ 23</t>
+  </si>
+  <si>
+    <t>▲ 239.32%</t>
+  </si>
+  <si>
+    <t>Concealer</t>
+  </si>
+  <si>
+    <t>███████▒▒▒ 19</t>
+  </si>
+  <si>
+    <t>▼ -58.01%</t>
+  </si>
+  <si>
+    <t>63-73</t>
+  </si>
+  <si>
+    <t>██████████ 27</t>
+  </si>
+  <si>
+    <t>➔ -6.87%</t>
   </si>
   <si>
     <t>Eyes</t>
   </si>
   <si>
-    <t>Brow gel</t>
-  </si>
-  <si>
-    <t>Youth</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>43-52</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ardeal</t>
-  </si>
-  <si>
-    <t>████████▒▒ 22</t>
-  </si>
-  <si>
-    <t>▼ -78.64%</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Lipstick</t>
-  </si>
-  <si>
-    <t>Seniors</t>
-  </si>
-  <si>
-    <t>63-73</t>
-  </si>
-  <si>
-    <t>██████▒▒▒▒ 16</t>
-  </si>
-  <si>
-    <t>⇧ 16.47%</t>
-  </si>
-  <si>
-    <t>Eyeliner</t>
-  </si>
-  <si>
-    <t>██████▒▒▒▒ 17</t>
-  </si>
-  <si>
-    <t>▲ 55.32%</t>
+    <t>Eyeshadow primer</t>
+  </si>
+  <si>
+    <t>33-42</t>
+  </si>
+  <si>
+    <t>▼ -28.75%</t>
+  </si>
+  <si>
+    <t>Deodorant</t>
+  </si>
+  <si>
+    <t>▼ -54.23%</t>
   </si>
   <si>
     <t>Nails</t>
   </si>
   <si>
-    <t>Nail strengthener</t>
-  </si>
-  <si>
-    <t>███████▒▒▒ 21</t>
-  </si>
-  <si>
-    <t>▲ 311.14%</t>
-  </si>
-  <si>
-    <t>Powder</t>
+    <t>Nail treatment</t>
+  </si>
+  <si>
+    <t>████████▒▒ 21</t>
+  </si>
+  <si>
+    <t>▲ 91.28%</t>
+  </si>
+  <si>
+    <t>Hands</t>
+  </si>
+  <si>
+    <t>Repair lotion</t>
+  </si>
+  <si>
+    <t>23-32</t>
+  </si>
+  <si>
+    <t>▲ 156.22%</t>
+  </si>
+  <si>
+    <t>Sun protection lotion</t>
+  </si>
+  <si>
+    <t>▼ -45.94%</t>
+  </si>
+  <si>
+    <t>▲ 121.13%</t>
   </si>
   <si>
     <t>Children</t>
   </si>
   <si>
-    <t>13-22</t>
-  </si>
-  <si>
-    <t>████████▒▒ 24</t>
-  </si>
-  <si>
-    <t>▲ 46.15%</t>
-  </si>
-  <si>
-    <t>Nail polish</t>
-  </si>
-  <si>
-    <t>▲ 87.90%</t>
-  </si>
-  <si>
-    <t>Lips</t>
-  </si>
-  <si>
-    <t>Lip liner</t>
-  </si>
-  <si>
-    <t>▲ 37.65%</t>
-  </si>
-  <si>
-    <t>Skincare</t>
-  </si>
-  <si>
-    <t>Cleansing</t>
-  </si>
-  <si>
-    <t>33-42</t>
-  </si>
-  <si>
-    <t>███████▒▒▒ 19</t>
-  </si>
-  <si>
-    <t>▲ 471.16%</t>
-  </si>
-  <si>
-    <t>Mascara</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>▼ -54.17%</t>
-  </si>
-  <si>
-    <t>██████████ 29</t>
-  </si>
-  <si>
-    <t>▲ 124.80%</t>
-  </si>
-  <si>
-    <t>Serum</t>
-  </si>
-  <si>
-    <t>23-32</t>
-  </si>
-  <si>
-    <t>████▒▒▒▒▒▒ 11</t>
-  </si>
-  <si>
-    <t>▲ 75.70%</t>
-  </si>
-  <si>
-    <t>█████████▒ 26</t>
-  </si>
-  <si>
-    <t>▼ -57.84%</t>
-  </si>
-  <si>
-    <t>Concealer</t>
-  </si>
-  <si>
-    <t>53-62</t>
-  </si>
-  <si>
-    <t>████▒▒▒▒▒▒ 12</t>
-  </si>
-  <si>
-    <t>➔ -0.33%</t>
-  </si>
-  <si>
-    <t>Eyeshadow</t>
-  </si>
-  <si>
-    <t>▲ 487.66%</t>
-  </si>
-  <si>
-    <t>█████▒▒▒▒▒ 14</t>
-  </si>
-  <si>
-    <t>▼ -70.26%</t>
-  </si>
-  <si>
-    <t>▲ 121.34%</t>
-  </si>
-  <si>
-    <t>█████████▒ 27</t>
-  </si>
-  <si>
-    <t>▲ 150.06%</t>
+    <t>▲ 97.78%</t>
   </si>
   <si>
     <t>Total</t>
@@ -256,13 +232,13 @@
       <color rgb="8A96A0"/>
     </font>
     <font>
+      <color rgb="006100"/>
+    </font>
+    <font>
       <color rgb="9C0006"/>
     </font>
-    <font>
-      <color rgb="006100"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,17 +257,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
+        <fgColor rgb="D9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="E7F5E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="D9EAD3"/>
+        <fgColor rgb="FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -301,12 +272,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
+        <fgColor rgb="F4CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F4CCCC"/>
+        <fgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -332,18 +303,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="13" width="20" customWidth="1"/>
@@ -756,101 +727,101 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <v>64.19</v>
+        <v>78.35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K2">
-        <v>40.49</v>
+        <v>80.49</v>
       </c>
       <c r="L2">
-        <v>954.97</v>
+        <v>963.74</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="4">
-        <v>134.21</v>
-      </c>
-      <c r="J3" s="5" t="s">
+        <v>164.31</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="4">
-        <v>23.99</v>
-      </c>
-      <c r="L3" s="4">
-        <v>518.05</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="K3">
+        <v>199.99</v>
+      </c>
+      <c r="L3">
+        <v>4164.110000000001</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>113.29</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6">
+        <v>76.21</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6">
+        <v>20.99</v>
+      </c>
+      <c r="L4" s="6">
+        <v>496.00999999999993</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="K4">
-        <v>150.57</v>
-      </c>
-      <c r="L4">
-        <v>2672.98</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -858,19 +829,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -878,61 +849,61 @@
       <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="I5">
-        <v>123.79</v>
+      <c r="I5" s="9">
+        <v>33.92</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K5">
-        <v>120.99</v>
+        <v>89.99</v>
       </c>
       <c r="L5">
-        <v>2664.58</v>
-      </c>
-      <c r="M5" s="7" t="s">
+        <v>1383.77</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="10">
+        <v>95.67</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="8">
-        <v>179.19</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="10">
+        <v>199.99</v>
+      </c>
+      <c r="L6" s="10">
+        <v>4695.4400000000005</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="K6">
-        <v>20.99</v>
-      </c>
-      <c r="L6">
-        <v>682.95</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -940,39 +911,39 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>143.82</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>94.08</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="K7">
-        <v>150.57</v>
+        <v>23.99</v>
       </c>
       <c r="L7">
-        <v>3256.0499999999997</v>
-      </c>
-      <c r="M7" s="7" t="s">
+        <v>599.6299999999999</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -981,39 +952,39 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>55.21</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>82.23</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K8">
-        <v>199.99</v>
+        <v>47.99</v>
       </c>
       <c r="L8">
-        <v>4482.01</v>
-      </c>
-      <c r="M8" s="7" t="s">
+        <v>1350.94</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1028,7 +999,7 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1043,19 +1014,19 @@
         <v>20</v>
       </c>
       <c r="I9">
-        <v>81.6</v>
+        <v>61.06</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>40.49</v>
+      </c>
+      <c r="L9">
+        <v>992.3300000000002</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="K9">
-        <v>149.99</v>
-      </c>
-      <c r="L9">
-        <v>2931.4100000000003</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1066,37 +1037,37 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>128.55</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>72.99</v>
+      </c>
+      <c r="L10">
+        <v>1515.36</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10">
-        <v>75.4</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10">
-        <v>23.99</v>
-      </c>
-      <c r="L10">
-        <v>531.2099999999999</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1104,19 +1075,19 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -1125,18 +1096,18 @@
         <v>20</v>
       </c>
       <c r="I11">
-        <v>117.62</v>
+        <v>58.51</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K11">
-        <v>72.99</v>
+        <v>149.99</v>
       </c>
       <c r="L11">
-        <v>2234.33</v>
-      </c>
-      <c r="M11" s="7" t="s">
+        <v>3208.3</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1145,19 +1116,19 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -1166,18 +1137,18 @@
         <v>20</v>
       </c>
       <c r="I12">
-        <v>111.87</v>
+        <v>84.92</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>59.99</v>
+        <v>80.49</v>
       </c>
       <c r="L12">
-        <v>771.76</v>
-      </c>
-      <c r="M12" s="7" t="s">
+        <v>1694.72</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1186,19 +1157,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -1207,16 +1178,16 @@
         <v>20</v>
       </c>
       <c r="I13">
-        <v>129.81</v>
+        <v>137</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>20.99</v>
+        <v>59.99</v>
       </c>
       <c r="L13">
-        <v>675.55</v>
+        <v>1336.8</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>61</v>
@@ -1227,19 +1198,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -1248,197 +1219,74 @@
         <v>20</v>
       </c>
       <c r="I14">
-        <v>85.6</v>
+        <v>111.96</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="K14">
         <v>120.99</v>
       </c>
       <c r="L14">
-        <v>1537.4799999999998</v>
-      </c>
-      <c r="M14" s="9" t="s">
+        <v>2894.73</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>90.7</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15">
+        <v>149.99</v>
+      </c>
+      <c r="L15">
+        <v>2940.51</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="10">
-        <v>76.79</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="10">
-        <v>199.99</v>
-      </c>
-      <c r="L15" s="10">
-        <v>4876.55</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="12">
-        <v>50.26</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>1450.26</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17">
-        <v>127.32</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17">
-        <v>249.99</v>
-      </c>
-      <c r="L17">
-        <v>4377.15</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18">
-        <v>143.87</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18">
-        <v>150.57</v>
-      </c>
-      <c r="L18">
-        <v>4209.26</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="1">
-        <f>SUM(I2:I18)</f>
-      </c>
-      <c r="J19" s="1">
-        <f>SUM(J2:J18)</f>
-      </c>
-      <c r="L19" s="1">
-        <f>SUM(L2:L18)</f>
+      <c r="I16" s="1">
+        <f>SUM(I2:I15)</f>
+      </c>
+      <c r="J16" s="1">
+        <f>SUM(J2:J15)</f>
+      </c>
+      <c r="L16" s="1">
+        <f>SUM(L2:L15)</f>
       </c>
     </row>
   </sheetData>

--- a/backend/ExportedData.xlsx
+++ b/backend/ExportedData.xlsx
@@ -5,13 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Filtered Data" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Legend" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -55,160 +56,229 @@
     <t>2022-05-01</t>
   </si>
   <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Anti-cellulite cream</t>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>Eye makeup remover</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>63-73</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Bucovina</t>
+  </si>
+  <si>
+    <t>███████▒▒▒ 20</t>
+  </si>
+  <si>
+    <t>▲ 93.12%</t>
+  </si>
+  <si>
+    <t>Brow gel</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>13-22</t>
+  </si>
+  <si>
+    <t>██████████ 27</t>
+  </si>
+  <si>
+    <t>▲ 335.29%</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Bronzer</t>
+  </si>
+  <si>
+    <t>53-62</t>
+  </si>
+  <si>
+    <t>▼ -76.61%</t>
+  </si>
+  <si>
+    <t>Sun Protection</t>
+  </si>
+  <si>
+    <t>UVA/UVB Protection</t>
+  </si>
+  <si>
+    <t>33-42</t>
+  </si>
+  <si>
+    <t>▼ -30.44%</t>
+  </si>
+  <si>
+    <t>Lips</t>
+  </si>
+  <si>
+    <t>Matte lipstick</t>
+  </si>
+  <si>
+    <t>█████████▒ 23</t>
+  </si>
+  <si>
+    <t>▲ 219.98%</t>
+  </si>
+  <si>
+    <t>Fragrance</t>
+  </si>
+  <si>
+    <t>Eau de parfum</t>
+  </si>
+  <si>
+    <t>█████▒▒▒▒▒ 13</t>
+  </si>
+  <si>
+    <t>▲ 39.05%</t>
+  </si>
+  <si>
+    <t>Pocket perfume</t>
   </si>
   <si>
     <t>Seniors</t>
   </si>
   <si>
-    <t>Female</t>
+    <t>████████▒▒ 22</t>
+  </si>
+  <si>
+    <t>▼ -54.15%</t>
+  </si>
+  <si>
+    <t>██████▒▒▒▒ 16</t>
+  </si>
+  <si>
+    <t>▲ 29.73%</t>
+  </si>
+  <si>
+    <t>Lip liner</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>▲ 45.90%</t>
+  </si>
+  <si>
+    <t>Powder</t>
+  </si>
+  <si>
+    <t>23-32</t>
+  </si>
+  <si>
+    <t>▼ -88.87%</t>
+  </si>
+  <si>
+    <t>██████▒▒▒▒ 17</t>
+  </si>
+  <si>
+    <t>▲ 613.26%</t>
+  </si>
+  <si>
+    <t>Skincare</t>
+  </si>
+  <si>
+    <t>Acne treatment</t>
+  </si>
+  <si>
+    <t>▲ 77.10%</t>
+  </si>
+  <si>
+    <t>Hands</t>
+  </si>
+  <si>
+    <t>Anti-aging cream</t>
   </si>
   <si>
     <t>43-52</t>
   </si>
   <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ardeal</t>
-  </si>
-  <si>
-    <t>████▒▒▒▒▒▒ 11</t>
-  </si>
-  <si>
-    <t>▼ -65.68%</t>
-  </si>
-  <si>
-    <t>Sun Protection</t>
-  </si>
-  <si>
-    <t>SPF 50+</t>
-  </si>
-  <si>
-    <t>Youth</t>
-  </si>
-  <si>
-    <t>53-62</t>
-  </si>
-  <si>
-    <t>███████▒▒▒ 20</t>
-  </si>
-  <si>
-    <t>▲ 388.52%</t>
-  </si>
-  <si>
-    <t>13-22</t>
-  </si>
-  <si>
-    <t>➔ -8.02%</t>
-  </si>
-  <si>
-    <t>Skincare</t>
-  </si>
-  <si>
-    <t>Face mask</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>██████▒▒▒▒ 15</t>
-  </si>
-  <si>
-    <t>▲ 33.72%</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Foundation</t>
-  </si>
-  <si>
-    <t>█████████▒ 23</t>
-  </si>
-  <si>
-    <t>▲ 239.32%</t>
-  </si>
-  <si>
-    <t>Concealer</t>
-  </si>
-  <si>
-    <t>███████▒▒▒ 19</t>
-  </si>
-  <si>
-    <t>▼ -58.01%</t>
-  </si>
-  <si>
-    <t>63-73</t>
-  </si>
-  <si>
-    <t>██████████ 27</t>
-  </si>
-  <si>
-    <t>➔ -6.87%</t>
-  </si>
-  <si>
-    <t>Eyes</t>
-  </si>
-  <si>
-    <t>Eyeshadow primer</t>
-  </si>
-  <si>
-    <t>33-42</t>
-  </si>
-  <si>
-    <t>▼ -28.75%</t>
-  </si>
-  <si>
-    <t>Deodorant</t>
-  </si>
-  <si>
-    <t>▼ -54.23%</t>
-  </si>
-  <si>
-    <t>Nails</t>
-  </si>
-  <si>
-    <t>Nail treatment</t>
-  </si>
-  <si>
-    <t>████████▒▒ 21</t>
-  </si>
-  <si>
-    <t>▲ 91.28%</t>
-  </si>
-  <si>
-    <t>Hands</t>
-  </si>
-  <si>
-    <t>Repair lotion</t>
-  </si>
-  <si>
-    <t>23-32</t>
-  </si>
-  <si>
-    <t>▲ 156.22%</t>
-  </si>
-  <si>
-    <t>Sun protection lotion</t>
-  </si>
-  <si>
-    <t>▼ -45.94%</t>
-  </si>
-  <si>
-    <t>▲ 121.13%</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>▲ 97.78%</t>
+    <t>▲ 36.93%</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Header Row</t>
+  </si>
+  <si>
+    <t>Bold text with blue background.</t>
+  </si>
+  <si>
+    <t>Max Total Sale</t>
+  </si>
+  <si>
+    <t>Green background and dark green text.</t>
+  </si>
+  <si>
+    <t>Min Total Sale</t>
+  </si>
+  <si>
+    <t>Red background and dark red text.</t>
+  </si>
+  <si>
+    <t>Max Sales Amount</t>
+  </si>
+  <si>
+    <t>Light green background in 'Sales Amount' column.</t>
+  </si>
+  <si>
+    <t>Min Sales Amount</t>
+  </si>
+  <si>
+    <t>Light red background in 'Sales Amount' column.</t>
+  </si>
+  <si>
+    <t>Progress bar with quantity appended.</t>
+  </si>
+  <si>
+    <t>Sales Change (%) ▲</t>
+  </si>
+  <si>
+    <t>Sales increased by more than 20% (dark green background).</t>
+  </si>
+  <si>
+    <t>Sales Change (%) ⇧</t>
+  </si>
+  <si>
+    <t>Sales increased between 10% and 20% (light green background).</t>
+  </si>
+  <si>
+    <t>Sales Change (%) ➔</t>
+  </si>
+  <si>
+    <t>Sales change within ±10% (yellow background).</t>
+  </si>
+  <si>
+    <t>Sales Change (%) ⇩</t>
+  </si>
+  <si>
+    <t>Sales decreased between 10% and 20% (light red background).</t>
+  </si>
+  <si>
+    <t>Sales Change (%) ▼</t>
+  </si>
+  <si>
+    <t>Sales decreased by more than 20% (dark red background).</t>
   </si>
 </sst>
 </file>
@@ -232,13 +302,13 @@
       <color rgb="8A96A0"/>
     </font>
     <font>
+      <color rgb="9C0006"/>
+    </font>
+    <font>
       <color rgb="006100"/>
     </font>
-    <font>
-      <color rgb="9C0006"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,27 +322,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="D9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FAD8D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="D9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -293,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,18 +368,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="13" width="20" customWidth="1"/>
@@ -727,16 +791,16 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <v>78.35</v>
+        <v>78.96</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K2">
-        <v>80.49</v>
+        <v>100</v>
       </c>
       <c r="L2">
-        <v>963.74</v>
+        <v>2078.96</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>22</v>
@@ -747,19 +811,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -767,61 +831,61 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="4">
-        <v>164.31</v>
+      <c r="I3">
+        <v>75.68</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>72.99</v>
+      </c>
+      <c r="L3">
+        <v>2046.4099999999999</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3">
-        <v>199.99</v>
-      </c>
-      <c r="L3">
-        <v>4164.110000000001</v>
-      </c>
-      <c r="M3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="6">
-        <v>76.21</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="I4" s="4">
+        <v>58.95</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
         <v>20.99</v>
       </c>
-      <c r="L4" s="6">
-        <v>496.00999999999993</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>30</v>
+      <c r="L4">
+        <v>478.74999999999994</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -829,19 +893,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -849,60 +913,60 @@
       <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="9">
-        <v>33.92</v>
+      <c r="I5">
+        <v>95.32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>89.99</v>
+        <v>60.49</v>
       </c>
       <c r="L5">
-        <v>1383.77</v>
+        <v>1305.12</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="10">
-        <v>95.67</v>
-      </c>
-      <c r="J6" s="11" t="s">
+      <c r="I6">
+        <v>115.49</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="10">
-        <v>199.99</v>
-      </c>
-      <c r="L6" s="10">
-        <v>4695.4400000000005</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="K6">
+        <v>120.99</v>
+      </c>
+      <c r="L6">
+        <v>2898.2599999999998</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -911,19 +975,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -932,19 +996,19 @@
         <v>20</v>
       </c>
       <c r="I7">
-        <v>143.82</v>
+        <v>72.85</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>23.99</v>
+        <v>149.99</v>
       </c>
       <c r="L7">
-        <v>599.6299999999999</v>
+        <v>2022.72</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -952,19 +1016,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -973,19 +1037,19 @@
         <v>20</v>
       </c>
       <c r="I8">
-        <v>55.21</v>
+        <v>108.87</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>47.99</v>
       </c>
       <c r="L8">
-        <v>1350.94</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>45</v>
+        <v>1164.65</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -993,19 +1057,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -1014,16 +1078,16 @@
         <v>20</v>
       </c>
       <c r="I9">
-        <v>61.06</v>
+        <v>110.75</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>40.49</v>
+        <v>199.99</v>
       </c>
       <c r="L9">
-        <v>992.3300000000002</v>
+        <v>3310.59</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>49</v>
@@ -1034,19 +1098,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -1055,59 +1119,59 @@
         <v>20</v>
       </c>
       <c r="I10">
-        <v>128.55</v>
+        <v>63.55</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>72.99</v>
+        <v>150.57</v>
       </c>
       <c r="L10">
-        <v>1515.36</v>
+        <v>2472.67</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I11">
-        <v>58.51</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11">
-        <v>149.99</v>
-      </c>
-      <c r="L11">
-        <v>3208.3</v>
-      </c>
-      <c r="M11" s="5" t="s">
+      <c r="I11" s="6">
+        <v>77.41</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="6">
+        <v>23.99</v>
+      </c>
+      <c r="L11" s="6">
+        <v>461.25</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1116,19 +1180,19 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -1137,19 +1201,19 @@
         <v>20</v>
       </c>
       <c r="I12">
-        <v>84.92</v>
+        <v>87.73</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>80.49</v>
+        <v>199.99</v>
       </c>
       <c r="L12">
-        <v>1694.72</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>59</v>
+        <v>3487.56</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1157,19 +1221,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -1177,116 +1241,186 @@
       <c r="H13" t="s">
         <v>20</v>
       </c>
-      <c r="I13">
-        <v>137</v>
+      <c r="I13" s="9">
+        <v>187.65</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>59.99</v>
+        <v>150.57</v>
       </c>
       <c r="L13">
-        <v>1336.8</v>
+        <v>2747.34</v>
       </c>
       <c r="M13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I14">
-        <v>111.96</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="I14" s="10">
+        <v>82.45</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K14">
-        <v>120.99</v>
-      </c>
-      <c r="L14">
-        <v>2894.73</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15">
-        <v>90.7</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15">
-        <v>149.99</v>
-      </c>
-      <c r="L15">
-        <v>2940.51</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="K14" s="10">
+        <v>199.99</v>
+      </c>
+      <c r="L14" s="10">
+        <v>4682.22</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="1">
-        <f>SUM(I2:I15)</f>
-      </c>
-      <c r="J16" s="1">
-        <f>SUM(J2:J15)</f>
-      </c>
-      <c r="L16" s="1">
-        <f>SUM(L2:L15)</f>
+      <c r="I15" s="1">
+        <f>SUM(I2:I14)</f>
+      </c>
+      <c r="J15" s="1">
+        <f>SUM(J2:J14)</f>
+      </c>
+      <c r="L15" s="1">
+        <f>SUM(L2:L14)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/backend/ExportedData.xlsx
+++ b/backend/ExportedData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -56,157 +56,94 @@
     <t>2022-05-01</t>
   </si>
   <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Blush</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>33-42</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>██████████ 25</t>
+  </si>
+  <si>
+    <t>▲ 23.81%</t>
+  </si>
+  <si>
+    <t>Hands</t>
+  </si>
+  <si>
+    <t>Anti-aging cream</t>
+  </si>
+  <si>
+    <t>████████▒▒ 22</t>
+  </si>
+  <si>
+    <t>▼ -47.58%</t>
+  </si>
+  <si>
+    <t>Sun Protection</t>
+  </si>
+  <si>
+    <t>UVA/UVB Protection</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>63-73</t>
+  </si>
+  <si>
+    <t>███████▒▒▒ 19</t>
+  </si>
+  <si>
+    <t>▼ -33.06%</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Deodorant</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>13-22</t>
+  </si>
+  <si>
+    <t>██████████ 26</t>
+  </si>
+  <si>
+    <t>▲ 38.46%</t>
+  </si>
+  <si>
     <t>Eyes</t>
   </si>
   <si>
-    <t>Eye makeup remover</t>
-  </si>
-  <si>
-    <t>Youth</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>63-73</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Bucovina</t>
-  </si>
-  <si>
-    <t>███████▒▒▒ 20</t>
-  </si>
-  <si>
-    <t>▲ 93.12%</t>
-  </si>
-  <si>
-    <t>Brow gel</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>13-22</t>
-  </si>
-  <si>
-    <t>██████████ 27</t>
-  </si>
-  <si>
-    <t>▲ 335.29%</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Bronzer</t>
-  </si>
-  <si>
-    <t>53-62</t>
-  </si>
-  <si>
-    <t>▼ -76.61%</t>
-  </si>
-  <si>
-    <t>Sun Protection</t>
-  </si>
-  <si>
-    <t>UVA/UVB Protection</t>
-  </si>
-  <si>
-    <t>33-42</t>
-  </si>
-  <si>
-    <t>▼ -30.44%</t>
-  </si>
-  <si>
-    <t>Lips</t>
-  </si>
-  <si>
-    <t>Matte lipstick</t>
-  </si>
-  <si>
-    <t>█████████▒ 23</t>
-  </si>
-  <si>
-    <t>▲ 219.98%</t>
-  </si>
-  <si>
-    <t>Fragrance</t>
-  </si>
-  <si>
-    <t>Eau de parfum</t>
-  </si>
-  <si>
-    <t>█████▒▒▒▒▒ 13</t>
-  </si>
-  <si>
-    <t>▲ 39.05%</t>
-  </si>
-  <si>
-    <t>Pocket perfume</t>
-  </si>
-  <si>
-    <t>Seniors</t>
-  </si>
-  <si>
-    <t>████████▒▒ 22</t>
-  </si>
-  <si>
-    <t>▼ -54.15%</t>
-  </si>
-  <si>
-    <t>██████▒▒▒▒ 16</t>
-  </si>
-  <si>
-    <t>▲ 29.73%</t>
-  </si>
-  <si>
-    <t>Lip liner</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>▲ 45.90%</t>
-  </si>
-  <si>
-    <t>Powder</t>
-  </si>
-  <si>
-    <t>23-32</t>
-  </si>
-  <si>
-    <t>▼ -88.87%</t>
-  </si>
-  <si>
-    <t>██████▒▒▒▒ 17</t>
-  </si>
-  <si>
-    <t>▲ 613.26%</t>
-  </si>
-  <si>
-    <t>Skincare</t>
-  </si>
-  <si>
-    <t>Acne treatment</t>
-  </si>
-  <si>
-    <t>▲ 77.10%</t>
-  </si>
-  <si>
-    <t>Hands</t>
-  </si>
-  <si>
-    <t>Anti-aging cream</t>
-  </si>
-  <si>
-    <t>43-52</t>
-  </si>
-  <si>
-    <t>▲ 36.93%</t>
+    <t>Eyeshadow</t>
+  </si>
+  <si>
+    <t>▼ -88.15%</t>
+  </si>
+  <si>
+    <t>████████▒▒ 20</t>
+  </si>
+  <si>
+    <t>▼ -78.91%</t>
   </si>
   <si>
     <t>Total</t>
@@ -298,14 +235,14 @@
       <color rgb="FFFFFF"/>
     </font>
     <font>
+      <color rgb="006100"/>
+    </font>
+    <font>
       <b/>
       <color rgb="8A96A0"/>
     </font>
     <font>
       <color rgb="9C0006"/>
-    </font>
-    <font>
-      <color rgb="006100"/>
     </font>
   </fonts>
   <fills count="8">
@@ -322,12 +259,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="D9EAD3"/>
+        <fgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F4CCCC"/>
+        <fgColor rgb="D9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -342,7 +279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
+        <fgColor rgb="F4CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -363,22 +300,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="13" width="20" customWidth="1"/>
@@ -766,43 +703,43 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2">
-        <v>78.96</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="2">
+        <v>82.03</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>2078.96</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="2">
+        <v>199.99</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5081.78</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -811,19 +748,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -832,19 +769,19 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>75.68</v>
-      </c>
-      <c r="J3" s="2" t="s">
+        <v>76.27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>103.99</v>
+      </c>
+      <c r="L3">
+        <v>2364.0499999999997</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="K3">
-        <v>72.99</v>
-      </c>
-      <c r="L3">
-        <v>2046.4099999999999</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -852,13 +789,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -872,20 +809,20 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4">
-        <v>58.95</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
+      <c r="I4">
+        <v>83.92</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>20.99</v>
+        <v>47.99</v>
       </c>
       <c r="L4">
-        <v>478.74999999999994</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>31</v>
+        <v>995.73</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -893,19 +830,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -913,61 +850,61 @@
       <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="I5">
-        <v>95.32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
+      <c r="I5" s="4">
+        <v>109.11</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>60.49</v>
+        <v>23.99</v>
       </c>
       <c r="L5">
-        <v>1305.12</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>35</v>
+        <v>732.85</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8">
+        <v>78.08</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>115.49</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6">
-        <v>120.99</v>
-      </c>
-      <c r="L6">
-        <v>2898.2599999999998</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>39</v>
+      <c r="K6" s="8">
+        <v>23.99</v>
+      </c>
+      <c r="L6" s="8">
+        <v>701.82</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -975,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -995,321 +932,34 @@
       <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="I7">
-        <v>72.85</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="11">
+        <v>27.73</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="K7">
-        <v>149.99</v>
+        <v>47.99</v>
       </c>
       <c r="L7">
-        <v>2022.72</v>
-      </c>
-      <c r="M7" s="3" t="s">
+        <v>987.5300000000001</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>108.87</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8">
-        <v>47.99</v>
-      </c>
-      <c r="L8">
-        <v>1164.65</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>110.75</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9">
-        <v>199.99</v>
-      </c>
-      <c r="L9">
-        <v>3310.59</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10">
-        <v>63.55</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10">
-        <v>150.57</v>
-      </c>
-      <c r="L10">
-        <v>2472.67</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="6">
-        <v>77.41</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="6">
-        <v>23.99</v>
-      </c>
-      <c r="L11" s="6">
-        <v>461.25</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12">
-        <v>87.73</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12">
-        <v>199.99</v>
-      </c>
-      <c r="L12">
-        <v>3487.56</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="9">
-        <v>187.65</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13">
-        <v>150.57</v>
-      </c>
-      <c r="L13">
-        <v>2747.34</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="10">
-        <v>82.45</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="10">
-        <v>199.99</v>
-      </c>
-      <c r="L14" s="10">
-        <v>4682.22</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="1">
-        <f>SUM(I2:I14)</f>
-      </c>
-      <c r="J15" s="1">
-        <f>SUM(J2:J14)</f>
-      </c>
-      <c r="L15" s="1">
-        <f>SUM(L2:L14)</f>
+      <c r="I8" s="1">
+        <f>SUM(I2:I7)</f>
+      </c>
+      <c r="J8" s="1">
+        <f>SUM(J2:J7)</f>
+      </c>
+      <c r="L8" s="1">
+        <f>SUM(L2:L7)</f>
       </c>
     </row>
   </sheetData>
@@ -1329,50 +979,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1380,47 +1030,47 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
